--- a/results/Temp Results/gamm_temp_param_ind.xlsx
+++ b/results/Temp Results/gamm_temp_param_ind.xlsx
@@ -389,13 +389,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>1.5625473383911</v>
+        <v>1.57830923414868</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0347334197690108</v>
+        <v>0.0344533211606062</v>
       </c>
       <c r="D2" t="n">
-        <v>44.9868555639662</v>
+        <v>45.8100752258772</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -406,16 +406,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0465989310480415</v>
+        <v>0.0450645780754445</v>
       </c>
       <c r="C3" t="n">
-        <v>0.043961695606861</v>
+        <v>0.0436511093027488</v>
       </c>
       <c r="D3" t="n">
-        <v>1.05998939314727</v>
+        <v>1.03238105045378</v>
       </c>
       <c r="E3" t="n">
-        <v>0.289164767818193</v>
+        <v>0.301908608213814</v>
       </c>
     </row>
     <row r="4">
@@ -423,16 +423,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0796189852357104</v>
+        <v>0.0704838805608534</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0712371866470845</v>
+        <v>0.071404732994947</v>
       </c>
       <c r="D4" t="n">
-        <v>1.11766043808201</v>
+        <v>0.987103761957085</v>
       </c>
       <c r="E4" t="n">
-        <v>0.263728137076845</v>
+        <v>0.323606086640475</v>
       </c>
     </row>
   </sheetData>
